--- a/itemGeneration/Priming.xlsx
+++ b/itemGeneration/Priming.xlsx
@@ -5,6 +5,8 @@
   <sheets>
     <sheet state="visible" name="words" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="nonwords" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="word_utkuedit" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="nonwords_utkuedit" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="362">
   <si>
     <t>item</t>
   </si>
@@ -1021,20 +1023,98 @@
   </si>
   <si>
     <t>meyve</t>
+  </si>
+  <si>
+    <t>mikrop</t>
+  </si>
+  <si>
+    <t>dergi</t>
+  </si>
+  <si>
+    <t>yargı</t>
+  </si>
+  <si>
+    <t>ton</t>
+  </si>
+  <si>
+    <t>hoparlör</t>
+  </si>
+  <si>
+    <t>göl</t>
+  </si>
+  <si>
+    <t>cam</t>
+  </si>
+  <si>
+    <t>makarna</t>
+  </si>
+  <si>
+    <t>turnike</t>
+  </si>
+  <si>
+    <t>atari</t>
+  </si>
+  <si>
+    <t>koku</t>
+  </si>
+  <si>
+    <t>üzüm</t>
+  </si>
+  <si>
+    <t>kolonya</t>
+  </si>
+  <si>
+    <t>sütlaç</t>
+  </si>
+  <si>
+    <t>nane</t>
+  </si>
+  <si>
+    <t>yürek</t>
+  </si>
+  <si>
+    <t>lale</t>
+  </si>
+  <si>
+    <t>traş</t>
+  </si>
+  <si>
+    <t>sucuk</t>
+  </si>
+  <si>
+    <t>tencere</t>
+  </si>
+  <si>
+    <t>dana</t>
+  </si>
+  <si>
+    <t>traktör</t>
+  </si>
+  <si>
+    <t>arşiv</t>
+  </si>
+  <si>
+    <t>avukat</t>
+  </si>
+  <si>
+    <t>tartı</t>
+  </si>
+  <si>
+    <t>bıçak</t>
+  </si>
+  <si>
+    <t>öküz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="14">
+  <fonts count="17">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
     </font>
     <font>
       <b/>
@@ -1070,16 +1150,28 @@
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FFFF0000"/>
-    </font>
-    <font/>
-    <font>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
       <color rgb="FFFF0000"/>
       <name val="Roboto"/>
+    </font>
+    <font/>
+    <font>
+      <color rgb="FF980000"/>
+    </font>
+    <font>
+      <color rgb="FFA61C00"/>
+    </font>
+    <font>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <b/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1108,61 +1200,70 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1177,6 +1278,14 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1393,1389 +1502,1389 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1.0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2.0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3.0</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>4.0</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>5.0</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>6.0</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>7.0</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>8.0</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>9.0</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>10.0</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>11.0</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>12.0</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>13.0</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>14.0</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>15.0</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>16.0</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>17.0</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>18.0</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>19.0</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>20.0</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>21.0</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>22.0</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>23.0</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>24.0</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4" t="s">
+      <c r="F25" s="3"/>
+      <c r="G25" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>25.0</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>26.0</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="7">
+      <c r="A28" s="6">
         <v>27.0</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <v>28.0</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="7">
+      <c r="A30" s="6">
         <v>29.0</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="7">
+      <c r="A31" s="6">
         <v>30.0</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="3" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7">
+      <c r="A32" s="6">
         <v>31.0</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="7">
+      <c r="A33" s="6">
         <v>32.0</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="5" t="s">
+      <c r="F33" s="3"/>
+      <c r="G33" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="7">
+      <c r="A34" s="6">
         <v>33.0</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="7">
+      <c r="A35" s="6">
         <v>34.0</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="7">
+      <c r="A36" s="6">
         <v>35.0</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="7">
+      <c r="A37" s="6">
         <v>36.0</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4" t="s">
+      <c r="F37" s="3"/>
+      <c r="G37" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="H37" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="7">
+      <c r="A38" s="6">
         <v>37.0</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G38" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H38" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="7">
+      <c r="A39" s="6">
         <v>38.0</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G39" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="H39" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="7">
+      <c r="A40" s="6">
         <v>39.0</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G40" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="H40" s="3" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="7">
+      <c r="A41" s="6">
         <v>40.0</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="H41" s="3" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="7">
+      <c r="A42" s="6">
         <v>41.0</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="G42" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="H42" s="3" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="7">
+      <c r="A43" s="6">
         <v>42.0</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G43" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="H43" s="3" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="7">
+      <c r="A44" s="6">
         <v>43.0</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="G44" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="H44" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="7">
+      <c r="A45" s="6">
         <v>44.0</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="G45" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="H45" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="7">
+      <c r="A46" s="6">
         <v>45.0</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G46" s="4"/>
+      <c r="G46" s="3"/>
     </row>
     <row r="47">
-      <c r="A47" s="7">
+      <c r="A47" s="6">
         <v>46.0</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="G47" s="3" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="7">
+      <c r="A48" s="6">
         <v>47.0</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="G48" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="H48" s="3" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="7">
+      <c r="A49" s="6">
         <v>48.0</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="G49" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="H49" s="3" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="7">
+      <c r="A50" s="6">
         <v>49.0</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="G50" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="H50" s="11" t="s">
+      <c r="H50" s="10" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="7">
+      <c r="A51" s="6">
         <v>50.0</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="G51" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H51" s="11" t="s">
+      <c r="H51" s="10" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="7">
+      <c r="A52" s="6">
         <v>51.0</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4" t="s">
+      <c r="F52" s="3"/>
+      <c r="G52" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="7">
+      <c r="A53" s="6">
         <v>52.0</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="E53" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="G53" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="4">
+      <c r="A54" s="3">
         <v>53.0</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="D54" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E54" s="3" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="4">
+      <c r="A55" s="3">
         <v>54.0</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="G55" s="3" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="4">
+      <c r="A56" s="3">
         <v>55.0</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F56" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="G56" s="4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="4">
+      <c r="A57" s="3">
         <v>56.0</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D57" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E57" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="G57" s="3" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="4">
+      <c r="A58" s="3">
         <v>57.0</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E58" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="G58" s="9" t="s">
+      <c r="G58" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="4">
+      <c r="A59" s="3">
         <v>58.0</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E59" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="G59" s="9" t="s">
+      <c r="G59" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="4">
+      <c r="A60" s="3">
         <v>59.0</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="E60" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4" t="s">
+      <c r="F60" s="3"/>
+      <c r="G60" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H60" s="14"/>
+      <c r="H60" s="3"/>
     </row>
     <row r="61">
-      <c r="A61" s="4">
+      <c r="A61" s="3">
         <v>60.0</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="D61" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E61" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="G61" s="14"/>
+      <c r="G61" s="3"/>
     </row>
     <row r="62">
-      <c r="A62" s="4">
+      <c r="A62" s="3">
         <v>61.0</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="E62" s="3" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="4">
+      <c r="A63" s="3">
         <v>62.0</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="E63" s="3" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="4">
+      <c r="A64" s="3">
         <v>63.0</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D64" s="13" t="s">
+      <c r="D64" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="E64" s="3" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="4">
+      <c r="A65" s="3">
         <v>64.0</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="E65" s="3" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="4">
+      <c r="A66" s="3">
         <v>65.0</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C66" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D66" s="13" t="s">
+      <c r="D66" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E66" s="3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -2801,1040 +2910,2717 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1.0</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6">
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6">
+        <v>24.0</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3">
+        <v>25.0</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6">
+        <v>26.0</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3">
+        <v>28.0</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3">
+        <v>29.0</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6">
+        <v>30.0</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6">
+        <v>31.0</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3">
+        <v>32.0</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3">
+        <v>33.0</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6">
+        <v>34.0</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6">
+        <v>35.0</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3">
+        <v>36.0</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6">
+        <v>37.0</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3">
+        <v>38.0</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3">
+        <v>39.0</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3">
+        <v>40.0</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3">
+        <v>41.0</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3">
+        <v>42.0</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3">
+        <v>43.0</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3">
+        <v>44.0</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3">
+        <v>45.0</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3">
+        <v>46.0</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3">
+        <v>47.0</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3">
+        <v>48.0</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3">
+        <v>49.0</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3">
+        <v>51.0</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3">
+        <v>52.0</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3">
+        <v>53.0</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3">
+        <v>54.0</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3">
+        <v>55.0</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3">
+        <v>56.0</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3">
+        <v>57.0</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="17.57"/>
+    <col customWidth="1" min="4" max="4" width="16.29"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3">
+        <v>1.0</v>
+      </c>
       <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6">
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6">
+        <v>24.0</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6">
+        <v>25.0</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6">
+        <v>26.0</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6">
+        <v>27.0</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6">
+        <v>28.0</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6">
+        <v>29.0</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6">
+        <v>30.0</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="6">
+        <v>31.0</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6">
+        <v>32.0</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6">
+        <v>33.0</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6">
+        <v>34.0</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6">
+        <v>35.0</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6">
+        <v>36.0</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6">
+        <v>37.0</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6">
+        <v>38.0</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6">
+        <v>39.0</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6">
+        <v>40.0</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6">
+        <v>41.0</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6">
+        <v>42.0</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6">
+        <v>43.0</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6">
+        <v>44.0</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6">
+        <v>45.0</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6">
+        <v>46.0</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="6">
+        <v>47.0</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="6">
+        <v>48.0</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="6">
+        <v>49.0</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6">
+        <v>50.0</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="6">
+        <v>51.0</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6">
+        <v>52.0</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3">
+        <v>53.0</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3">
+        <v>54.0</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3">
+        <v>55.0</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3">
+        <v>56.0</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3">
+        <v>57.0</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3">
+        <v>58.0</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3">
+        <v>59.0</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3">
+        <v>60.0</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3">
+        <v>61.0</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3">
+        <v>62.0</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3">
+        <v>63.0</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3">
+        <v>64.0</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3">
+        <v>65.0</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="17.43"/>
+    <col customWidth="1" min="4" max="4" width="18.43"/>
+    <col customWidth="1" min="5" max="5" width="26.71"/>
+    <col customWidth="1" min="6" max="6" width="23.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2.0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="E3" s="17"/>
     </row>
     <row r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3.0</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="C4" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="G4" s="17"/>
     </row>
     <row r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>4.0</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="C5" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>5.0</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>25</v>
+      <c r="C6" s="16" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>6.0</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>7.0</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>102</v>
+      <c r="C8" s="16" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>8.0</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>102</v>
+      <c r="C9" s="16" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>9.0</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="11">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>10.0</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="12">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>11.0</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>120</v>
-      </c>
+      <c r="C12" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="E12" s="17"/>
     </row>
     <row r="13">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>12.0</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="14">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>13.0</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>70</v>
+      <c r="C14" s="16" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>14.0</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>91</v>
-      </c>
+      <c r="C15" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="E15" s="21"/>
     </row>
     <row r="16">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>15.0</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>170</v>
-      </c>
+      <c r="G16" s="21"/>
     </row>
     <row r="17">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>16.0</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>170</v>
-      </c>
+      <c r="E17" s="17"/>
+      <c r="G17" s="17"/>
     </row>
     <row r="18">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>17.0</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>49</v>
+      <c r="C18" s="16" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>18.0</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="21"/>
     </row>
     <row r="20">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>19.0</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>150</v>
-      </c>
+      <c r="C20" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="G20" s="21"/>
     </row>
     <row r="21">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>20.0</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>150</v>
-      </c>
+      <c r="G21" s="17"/>
     </row>
     <row r="22">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>21.0</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>128</v>
-      </c>
+      <c r="G22" s="17"/>
     </row>
     <row r="23">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>22.0</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>150</v>
-      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
     </row>
     <row r="24">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>23.0</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>150</v>
-      </c>
+      <c r="G24" s="17"/>
     </row>
     <row r="25">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>24.0</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="26">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>25.0</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>26.0</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>211</v>
-      </c>
+      <c r="G27" s="17"/>
     </row>
     <row r="28">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>28.0</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="F28" s="17"/>
     </row>
     <row r="29">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>29.0</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>49</v>
-      </c>
+      <c r="E29" s="17"/>
     </row>
     <row r="30">
-      <c r="A30" s="7">
+      <c r="A30" s="6">
         <v>30.0</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>97</v>
+      <c r="C30" s="16" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="7">
+      <c r="A31" s="6">
         <v>31.0</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="32">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>32.0</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>102</v>
-      </c>
+      <c r="F32" s="21"/>
     </row>
     <row r="33">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>33.0</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>211</v>
-      </c>
+      <c r="C33" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="G33" s="17"/>
     </row>
     <row r="34">
-      <c r="A34" s="7">
+      <c r="A34" s="6">
         <v>34.0</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="35">
-      <c r="A35" s="7">
+      <c r="A35" s="6">
         <v>35.0</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="36">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>36.0</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>97</v>
-      </c>
+      <c r="G36" s="21"/>
     </row>
     <row r="37">
-      <c r="A37" s="7">
+      <c r="A37" s="6">
         <v>37.0</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>49</v>
-      </c>
+      <c r="C37" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="G37" s="21"/>
     </row>
     <row r="38">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>38.0</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>84</v>
-      </c>
+      <c r="F38" s="17"/>
     </row>
     <row r="39">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>39.0</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>128</v>
-      </c>
     </row>
     <row r="40">
-      <c r="A40" s="4">
+      <c r="A40" s="3">
         <v>40.0</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F40" s="18" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="41">
-      <c r="A41" s="4">
+      <c r="A41" s="3">
         <v>41.0</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="42">
-      <c r="A42" s="4">
+      <c r="A42" s="3">
         <v>42.0</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="43">
-      <c r="A43" s="4">
+      <c r="A43" s="3">
         <v>43.0</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="44">
-      <c r="A44" s="4">
+      <c r="A44" s="3">
         <v>44.0</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>211</v>
-      </c>
+      <c r="E44" s="17"/>
     </row>
     <row r="45">
-      <c r="A45" s="4">
+      <c r="A45" s="3">
         <v>45.0</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>211</v>
-      </c>
     </row>
     <row r="46">
-      <c r="A46" s="4">
+      <c r="A46" s="3">
         <v>46.0</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>128</v>
-      </c>
     </row>
     <row r="47">
-      <c r="A47" s="4">
+      <c r="A47" s="3">
         <v>47.0</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>84</v>
-      </c>
+      <c r="G47" s="17"/>
     </row>
     <row r="48">
-      <c r="A48" s="4">
+      <c r="A48" s="3">
         <v>48.0</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="C48" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="G48" s="17"/>
     </row>
     <row r="49">
-      <c r="A49" s="4">
+      <c r="A49" s="3">
         <v>49.0</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>151</v>
-      </c>
     </row>
     <row r="50">
-      <c r="A50" s="4">
+      <c r="A50" s="3">
         <v>50.0</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="51">
-      <c r="A51" s="4">
+      <c r="A51" s="3">
         <v>51.0</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>97</v>
-      </c>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
     </row>
     <row r="52">
-      <c r="A52" s="4">
+      <c r="A52" s="3">
         <v>52.0</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>204</v>
-      </c>
     </row>
     <row r="53">
-      <c r="A53" s="4">
+      <c r="A53" s="3">
         <v>53.0</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>204</v>
-      </c>
     </row>
     <row r="54">
-      <c r="A54" s="4">
+      <c r="A54" s="3">
         <v>54.0</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>220</v>
+      <c r="C54" s="16" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="4">
+      <c r="A55" s="3">
         <v>55.0</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>220</v>
-      </c>
+      <c r="G55" s="18"/>
     </row>
     <row r="56">
-      <c r="A56" s="4">
+      <c r="A56" s="3">
         <v>56.0</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>226</v>
-      </c>
+      <c r="E56" s="17"/>
     </row>
     <row r="57">
-      <c r="A57" s="4">
+      <c r="A57" s="3">
         <v>57.0</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>226</v>
-      </c>
+    </row>
+    <row r="58">
+      <c r="G58" s="19"/>
+    </row>
+    <row r="59">
+      <c r="F59" s="19"/>
+    </row>
+    <row r="65">
+      <c r="G65" s="19"/>
+    </row>
+    <row r="67">
+      <c r="G67" s="19"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/itemGeneration/Priming.xlsx
+++ b/itemGeneration/Priming.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="385">
   <si>
     <t>item</t>
   </si>
@@ -370,6 +370,9 @@
     <t>Afra Tarı</t>
   </si>
   <si>
+    <t>Muaz</t>
+  </si>
+  <si>
     <t>ekran</t>
   </si>
   <si>
@@ -704,6 +707,42 @@
   </si>
   <si>
     <t>hamur</t>
+  </si>
+  <si>
+    <t>gazete</t>
+  </si>
+  <si>
+    <t>akü</t>
+  </si>
+  <si>
+    <t>Muaz Alemdar</t>
+  </si>
+  <si>
+    <t>vezne</t>
+  </si>
+  <si>
+    <t>fatura</t>
+  </si>
+  <si>
+    <t>klarnet</t>
+  </si>
+  <si>
+    <t>ay</t>
+  </si>
+  <si>
+    <t>uygun</t>
+  </si>
+  <si>
+    <t>Maharrem Ayar</t>
+  </si>
+  <si>
+    <t>akıl</t>
+  </si>
+  <si>
+    <t>zeka</t>
+  </si>
+  <si>
+    <t>kardeş</t>
   </si>
   <si>
     <t>target nonword
@@ -1025,6 +1064,24 @@
     <t>meyve</t>
   </si>
   <si>
+    <t>serşan</t>
+  </si>
+  <si>
+    <t>hecras</t>
+  </si>
+  <si>
+    <t>perde</t>
+  </si>
+  <si>
+    <t>çart</t>
+  </si>
+  <si>
+    <t>kirek</t>
+  </si>
+  <si>
+    <t>dünya</t>
+  </si>
+  <si>
     <t>mikrop</t>
   </si>
   <si>
@@ -1061,6 +1118,12 @@
     <t>üzüm</t>
   </si>
   <si>
+    <t>tiraj</t>
+  </si>
+  <si>
+    <t>uydu</t>
+  </si>
+  <si>
     <t>kolonya</t>
   </si>
   <si>
@@ -1104,6 +1167,12 @@
   </si>
   <si>
     <t>öküz</t>
+  </si>
+  <si>
+    <t>bozgun</t>
+  </si>
+  <si>
+    <t>kılavuz</t>
   </si>
 </sst>
 </file>
@@ -1149,6 +1218,7 @@
       <color rgb="FFA61C00"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
@@ -1157,7 +1227,6 @@
       <color rgb="FFFF0000"/>
       <name val="Roboto"/>
     </font>
-    <font/>
     <font>
       <color rgb="FF980000"/>
     </font>
@@ -1235,20 +1304,20 @@
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -2145,25 +2214,31 @@
       <c r="G30" s="3" t="s">
         <v>116</v>
       </c>
+      <c r="H30" s="3" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="6">
         <v>30.0</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>41</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="32">
@@ -2171,16 +2246,16 @@
         <v>31.0</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>116</v>
@@ -2191,20 +2266,20 @@
         <v>32.0</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>97</v>
@@ -2215,16 +2290,16 @@
         <v>33.0</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>116</v>
@@ -2235,16 +2310,16 @@
         <v>34.0</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>116</v>
@@ -2255,13 +2330,13 @@
         <v>35.0</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>32</v>
@@ -2272,13 +2347,13 @@
         <v>36.0</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>32</v>
@@ -2296,16 +2371,16 @@
         <v>37.0</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>84</v>
@@ -2319,16 +2394,16 @@
         <v>38.0</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>84</v>
@@ -2342,22 +2417,22 @@
         <v>39.0</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41">
@@ -2365,19 +2440,19 @@
         <v>40.0</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H41" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="42">
@@ -2385,22 +2460,22 @@
         <v>41.0</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>92</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43">
@@ -2411,19 +2486,19 @@
         <v>100</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>92</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44">
@@ -2431,19 +2506,19 @@
         <v>43.0</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>97</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>57</v>
@@ -2454,19 +2529,19 @@
         <v>44.0</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>97</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>57</v>
@@ -2477,10 +2552,10 @@
         <v>45.0</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>43</v>
@@ -2495,10 +2570,10 @@
         <v>46.0</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>62</v>
@@ -2507,7 +2582,7 @@
         <v>96</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48">
@@ -2515,22 +2590,22 @@
         <v>47.0</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>57</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49">
@@ -2538,22 +2613,22 @@
         <v>48.0</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>57</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50">
@@ -2564,19 +2639,19 @@
         <v>13</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>50</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51">
@@ -2584,13 +2659,13 @@
         <v>50.0</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>50</v>
@@ -2599,7 +2674,7 @@
         <v>91</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52">
@@ -2607,16 +2682,16 @@
         <v>51.0</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3" t="s">
@@ -2628,16 +2703,16 @@
         <v>52.0</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>84</v>
@@ -2648,16 +2723,16 @@
         <v>53.0</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="55">
@@ -2665,19 +2740,19 @@
         <v>54.0</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="G55" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56">
@@ -2685,22 +2760,22 @@
         <v>55.0</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>116</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57">
@@ -2708,19 +2783,19 @@
         <v>56.0</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>116</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58">
@@ -2728,16 +2803,16 @@
         <v>57.0</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G58" s="8" t="s">
         <v>49</v>
@@ -2748,16 +2823,16 @@
         <v>58.0</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="G59" s="8" t="s">
         <v>49</v>
@@ -2768,16 +2843,16 @@
         <v>59.0</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3" t="s">
@@ -2790,16 +2865,16 @@
         <v>60.0</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G61" s="3"/>
     </row>
@@ -2808,7 +2883,7 @@
         <v>61.0</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>7</v>
@@ -2817,7 +2892,7 @@
         <v>43</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="63">
@@ -2825,16 +2900,16 @@
         <v>62.0</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="64">
@@ -2842,16 +2917,16 @@
         <v>63.0</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="65">
@@ -2859,16 +2934,16 @@
         <v>64.0</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="66">
@@ -2876,16 +2951,84 @@
         <v>65.0</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>226</v>
+    </row>
+    <row r="67">
+      <c r="A67" s="3">
+        <v>66.0</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3">
+        <v>67.0</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3">
+        <v>68.0</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3">
+        <v>69.0</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -2914,10 +3057,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -2954,10 +3097,10 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -2968,10 +3111,10 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>10</v>
@@ -2982,7 +3125,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>62</v>
@@ -3002,12 +3145,12 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D5" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -3022,7 +3165,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>99</v>
@@ -3031,10 +3174,10 @@
         <v>24</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>239</v>
+        <v>251</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>252</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>25</v>
@@ -3045,16 +3188,16 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>242</v>
+      <c r="F7" s="14" t="s">
+        <v>255</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>25</v>
@@ -3065,7 +3208,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
@@ -3073,8 +3216,8 @@
       <c r="D8" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>244</v>
+      <c r="E8" s="15" t="s">
+        <v>257</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>102</v>
@@ -3085,10 +3228,10 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>96</v>
@@ -3102,19 +3245,19 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>91</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11">
@@ -3122,19 +3265,19 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>50</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
@@ -3142,22 +3285,22 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13">
@@ -3165,10 +3308,10 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>25</v>
@@ -3177,7 +3320,7 @@
         <v>24</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
@@ -3185,7 +3328,7 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>11</v>
@@ -3199,10 +3342,10 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>70</v>
@@ -3216,16 +3359,16 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17">
@@ -3233,16 +3376,16 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18">
@@ -3250,10 +3393,10 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>84</v>
@@ -3267,10 +3410,10 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>84</v>
@@ -3285,7 +3428,7 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>73</v>
@@ -3297,7 +3440,7 @@
         <v>70</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21">
@@ -3305,10 +3448,10 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>50</v>
@@ -3317,7 +3460,7 @@
         <v>70</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22">
@@ -3325,13 +3468,13 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23">
@@ -3339,19 +3482,19 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>97</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24">
@@ -3359,16 +3502,16 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>57</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25">
@@ -3376,10 +3519,10 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>57</v>
@@ -3393,10 +3536,10 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>49</v>
@@ -3407,16 +3550,16 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>49</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28">
@@ -3424,10 +3567,10 @@
         <v>28.0</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>97</v>
@@ -3441,10 +3584,10 @@
         <v>29.0</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>97</v>
@@ -3458,10 +3601,10 @@
         <v>30.0</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>32</v>
@@ -3475,10 +3618,10 @@
         <v>31.0</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>32</v>
@@ -3495,16 +3638,16 @@
         <v>32.0</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>91</v>
@@ -3518,16 +3661,16 @@
         <v>33.0</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34">
@@ -3535,10 +3678,10 @@
         <v>34.0</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>41</v>
@@ -3556,10 +3699,10 @@
         <v>35.0</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>41</v>
@@ -3573,13 +3716,13 @@
         <v>36.0</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>97</v>
@@ -3590,13 +3733,13 @@
         <v>37.0</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>49</v>
@@ -3607,10 +3750,10 @@
         <v>38.0</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>92</v>
@@ -3624,10 +3767,10 @@
         <v>39.0</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>92</v>
@@ -3636,7 +3779,7 @@
         <v>84</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40">
@@ -3644,15 +3787,15 @@
         <v>40.0</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="F40" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F40" s="16" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3661,13 +3804,13 @@
         <v>41.0</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>91</v>
@@ -3678,10 +3821,10 @@
         <v>42.0</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>116</v>
@@ -3698,10 +3841,10 @@
         <v>43.0</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>116</v>
@@ -3718,10 +3861,10 @@
         <v>44.0</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>80</v>
@@ -3730,7 +3873,7 @@
         <v>32</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45">
@@ -3738,10 +3881,10 @@
         <v>45.0</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>91</v>
@@ -3750,7 +3893,7 @@
         <v>32</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="46">
@@ -3758,16 +3901,16 @@
         <v>46.0</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47">
@@ -3775,10 +3918,10 @@
         <v>47.0</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>42</v>
@@ -3792,19 +3935,19 @@
         <v>48.0</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>116</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49">
@@ -3812,19 +3955,19 @@
         <v>49.0</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>116</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50">
@@ -3832,13 +3975,13 @@
         <v>50.0</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>84</v>
@@ -3849,13 +3992,13 @@
         <v>51.0</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>97</v>
@@ -3866,13 +4009,13 @@
         <v>52.0</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="53">
@@ -3880,13 +4023,13 @@
         <v>53.0</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="54">
@@ -3894,13 +4037,13 @@
         <v>54.0</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="55">
@@ -3908,13 +4051,13 @@
         <v>55.0</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56">
@@ -3922,13 +4065,13 @@
         <v>56.0</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57">
@@ -3936,13 +4079,69 @@
         <v>57.0</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3">
+        <v>58.0</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3">
+        <v>59.0</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3">
+        <v>60.0</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3">
+        <v>61.0</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -4216,8 +4415,8 @@
       <c r="C17" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="16" t="s">
-        <v>251</v>
+      <c r="D17" s="12" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="18">
@@ -4273,7 +4472,7 @@
         <v>79</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
     </row>
     <row r="22">
@@ -4343,7 +4542,7 @@
         <v>99</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27">
@@ -4407,13 +4606,13 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32">
@@ -4421,13 +4620,13 @@
         <v>31.0</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
     </row>
     <row r="33">
@@ -4435,13 +4634,13 @@
         <v>32.0</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34">
@@ -4449,13 +4648,13 @@
         <v>33.0</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>338</v>
+        <v>131</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="35">
@@ -4463,13 +4662,13 @@
         <v>34.0</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36">
@@ -4477,13 +4676,13 @@
         <v>35.0</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37">
@@ -4491,13 +4690,13 @@
         <v>36.0</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38">
@@ -4505,13 +4704,13 @@
         <v>37.0</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39">
@@ -4519,13 +4718,13 @@
         <v>38.0</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40">
@@ -4533,13 +4732,13 @@
         <v>39.0</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41">
@@ -4547,13 +4746,13 @@
         <v>40.0</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42">
@@ -4561,13 +4760,13 @@
         <v>41.0</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43">
@@ -4578,10 +4777,10 @@
         <v>100</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44">
@@ -4589,13 +4788,13 @@
         <v>43.0</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45">
@@ -4603,13 +4802,13 @@
         <v>44.0</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46">
@@ -4617,13 +4816,13 @@
         <v>45.0</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
     </row>
     <row r="47">
@@ -4631,13 +4830,13 @@
         <v>46.0</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
     </row>
     <row r="48">
@@ -4645,13 +4844,13 @@
         <v>47.0</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49">
@@ -4659,13 +4858,13 @@
         <v>48.0</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="50">
@@ -4673,13 +4872,13 @@
         <v>49.0</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="51">
@@ -4687,13 +4886,13 @@
         <v>50.0</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52">
@@ -4701,13 +4900,13 @@
         <v>51.0</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="53">
@@ -4715,13 +4914,13 @@
         <v>52.0</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="54">
@@ -4729,13 +4928,13 @@
         <v>53.0</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
     </row>
     <row r="55">
@@ -4743,13 +4942,13 @@
         <v>54.0</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="56">
@@ -4757,13 +4956,13 @@
         <v>55.0</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="57">
@@ -4771,13 +4970,13 @@
         <v>56.0</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="58">
@@ -4785,13 +4984,13 @@
         <v>57.0</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="59">
@@ -4799,13 +4998,13 @@
         <v>58.0</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60">
@@ -4813,13 +5012,13 @@
         <v>59.0</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="61">
@@ -4827,13 +5026,13 @@
         <v>60.0</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62">
@@ -4841,13 +5040,13 @@
         <v>61.0</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="D62" s="16" t="s">
-        <v>345</v>
+        <v>217</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="63">
@@ -4855,13 +5054,13 @@
         <v>62.0</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64">
@@ -4869,13 +5068,13 @@
         <v>63.0</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
     </row>
     <row r="65">
@@ -4883,13 +5082,13 @@
         <v>64.0</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="66">
@@ -4897,13 +5096,69 @@
         <v>65.0</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3">
+        <v>66.0</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3">
+        <v>67.0</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3">
+        <v>68.0</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3">
+        <v>69.0</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -4932,10 +5187,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="D1" s="20"/>
       <c r="E1" s="2"/>
@@ -4966,10 +5221,10 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3">
@@ -4977,10 +5232,10 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="E3" s="17"/>
     </row>
@@ -4989,10 +5244,10 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>347</v>
+        <v>248</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>368</v>
       </c>
       <c r="G4" s="17"/>
     </row>
@@ -5001,12 +5256,12 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="D5" s="12"/>
+        <v>249</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="D5" s="13"/>
       <c r="E5" s="17"/>
     </row>
     <row r="6">
@@ -5014,10 +5269,10 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>349</v>
+        <v>250</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="7">
@@ -5025,10 +5280,10 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8">
@@ -5036,10 +5291,10 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>350</v>
+        <v>256</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="9">
@@ -5047,10 +5302,10 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>351</v>
+        <v>258</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="10">
@@ -5058,10 +5313,10 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11">
@@ -5069,10 +5324,10 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12">
@@ -5080,10 +5335,10 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>352</v>
+        <v>263</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>373</v>
       </c>
       <c r="E12" s="17"/>
     </row>
@@ -5092,10 +5347,10 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14">
@@ -5103,10 +5358,10 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>353</v>
+        <v>268</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="15">
@@ -5114,10 +5369,10 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>354</v>
+        <v>269</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>375</v>
       </c>
       <c r="E15" s="21"/>
     </row>
@@ -5126,10 +5381,10 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="G16" s="21"/>
     </row>
@@ -5138,10 +5393,10 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="E17" s="17"/>
       <c r="G17" s="17"/>
@@ -5151,10 +5406,10 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>355</v>
+        <v>274</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="19">
@@ -5162,10 +5417,10 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="G19" s="21"/>
     </row>
@@ -5174,10 +5429,10 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>356</v>
+        <v>277</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>377</v>
       </c>
       <c r="G20" s="21"/>
     </row>
@@ -5186,10 +5441,10 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="G21" s="17"/>
     </row>
@@ -5198,10 +5453,10 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="G22" s="17"/>
     </row>
@@ -5210,10 +5465,10 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
@@ -5223,10 +5478,10 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="G24" s="17"/>
     </row>
@@ -5235,10 +5490,10 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26">
@@ -5246,10 +5501,10 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="D26" s="9"/>
     </row>
@@ -5258,10 +5513,10 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="G27" s="17"/>
     </row>
@@ -5270,10 +5525,10 @@
         <v>28.0</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="F28" s="17"/>
     </row>
@@ -5282,10 +5537,10 @@
         <v>29.0</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="E29" s="17"/>
     </row>
@@ -5294,10 +5549,10 @@
         <v>30.0</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>357</v>
+        <v>296</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="31">
@@ -5305,10 +5560,10 @@
         <v>31.0</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32">
@@ -5316,10 +5571,10 @@
         <v>32.0</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="F32" s="21"/>
     </row>
@@ -5328,10 +5583,10 @@
         <v>33.0</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>358</v>
+        <v>302</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>379</v>
       </c>
       <c r="G33" s="17"/>
     </row>
@@ -5340,10 +5595,10 @@
         <v>34.0</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35">
@@ -5351,10 +5606,10 @@
         <v>35.0</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36">
@@ -5362,10 +5617,10 @@
         <v>36.0</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="G36" s="21"/>
     </row>
@@ -5374,10 +5629,10 @@
         <v>37.0</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>359</v>
+        <v>309</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>380</v>
       </c>
       <c r="D37" s="9"/>
       <c r="G37" s="21"/>
@@ -5387,10 +5642,10 @@
         <v>38.0</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="F38" s="17"/>
     </row>
@@ -5399,10 +5654,10 @@
         <v>39.0</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
     </row>
     <row r="40">
@@ -5410,10 +5665,10 @@
         <v>40.0</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
     </row>
     <row r="41">
@@ -5421,10 +5676,10 @@
         <v>41.0</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42">
@@ -5432,10 +5687,10 @@
         <v>42.0</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
     </row>
     <row r="43">
@@ -5443,10 +5698,10 @@
         <v>43.0</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
     </row>
     <row r="44">
@@ -5454,10 +5709,10 @@
         <v>44.0</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="E44" s="17"/>
     </row>
@@ -5466,10 +5721,10 @@
         <v>45.0</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
     </row>
     <row r="46">
@@ -5477,10 +5732,10 @@
         <v>46.0</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
     </row>
     <row r="47">
@@ -5488,10 +5743,10 @@
         <v>47.0</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="G47" s="17"/>
     </row>
@@ -5500,10 +5755,10 @@
         <v>48.0</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>360</v>
+        <v>330</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>381</v>
       </c>
       <c r="G48" s="17"/>
     </row>
@@ -5512,10 +5767,10 @@
         <v>49.0</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
     </row>
     <row r="50">
@@ -5523,10 +5778,10 @@
         <v>50.0</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
     </row>
     <row r="51">
@@ -5534,10 +5789,10 @@
         <v>51.0</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="E51" s="17"/>
       <c r="F51" s="17"/>
@@ -5547,10 +5802,10 @@
         <v>52.0</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
     </row>
     <row r="53">
@@ -5558,10 +5813,10 @@
         <v>53.0</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
     </row>
     <row r="54">
@@ -5569,10 +5824,10 @@
         <v>54.0</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>361</v>
+        <v>341</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="55">
@@ -5580,10 +5835,10 @@
         <v>55.0</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="G55" s="18"/>
     </row>
@@ -5592,10 +5847,10 @@
         <v>56.0</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="E56" s="17"/>
     </row>
@@ -5604,17 +5859,57 @@
         <v>57.0</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
     </row>
     <row r="58">
+      <c r="A58" s="3">
+        <v>58.0</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>383</v>
+      </c>
       <c r="G58" s="19"/>
     </row>
     <row r="59">
+      <c r="A59" s="3">
+        <v>59.0</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>350</v>
+      </c>
       <c r="F59" s="19"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="3">
+        <v>60.0</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3">
+        <v>61.0</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="65">
       <c r="G65" s="19"/>
